--- a/type chart.xlsx
+++ b/type chart.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\conways_pokemon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F12C8FA-93B6-4164-B663-9D494B6799D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E7DCEC-017E-468A-BB63-0F93E1E81E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{38FFBD93-3BF1-46ED-B352-4231F249CED1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="gen 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="71">
   <si>
     <t>DEFENSE →</t>
   </si>
@@ -224,13 +225,37 @@
   </si>
   <si>
     <t>(235, 73, 40)</t>
+  </si>
+  <si>
+    <t>DAR</t>
+  </si>
+  <si>
+    <t>STE</t>
+  </si>
+  <si>
+    <t>DARK</t>
+  </si>
+  <si>
+    <t>STEEL</t>
+  </si>
+  <si>
+    <t>8c6f61</t>
+  </si>
+  <si>
+    <t>(140, 111, 97)</t>
+  </si>
+  <si>
+    <t>b7b7c5</t>
+  </si>
+  <si>
+    <t>(183, 183, 197)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +294,12 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FFFFDD57"/>
+      <name val="Fira Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFFDD57"/>
       <name val="Fira Sans"/>
       <family val="2"/>
@@ -319,13 +350,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -342,6 +370,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -709,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F57EA0-4082-43BA-B8E7-9E74F500281A}">
   <dimension ref="A2:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="92" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D10"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="92" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22:U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
@@ -856,52 +905,52 @@
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="4"/>
+      <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.7">
       <c r="B6" s="2" t="s">
@@ -913,28 +962,28 @@
       <c r="D6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="4"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="3"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.7">
       <c r="A7" s="1">
         <v>0</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -943,32 +992,32 @@
       <c r="D7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="R7" s="7">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="6">
         <v>0</v>
       </c>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.7">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -977,42 +1026,42 @@
       <c r="D8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="8">
-        <v>2</v>
-      </c>
-      <c r="J8" s="8">
-        <v>2</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T8" s="6"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="7">
+        <v>2</v>
+      </c>
+      <c r="J8" s="7">
+        <v>2</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="4"/>
+      <c r="S8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="5"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.7">
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1021,40 +1070,40 @@
       <c r="D9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="8">
-        <v>2</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="8">
-        <v>2</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="8">
-        <v>2</v>
-      </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T9" s="6"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="7">
+        <v>2</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="7">
+        <v>2</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T9" s="5"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.7">
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1063,40 +1112,40 @@
       <c r="D10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="8">
-        <v>2</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="7">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="7">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="8">
-        <v>2</v>
-      </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T10" s="6"/>
+      <c r="N10" s="7">
+        <v>2</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10" s="5"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.7">
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1105,46 +1154,46 @@
       <c r="D11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="8">
-        <v>2</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="8">
-        <v>2</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>2</v>
-      </c>
-      <c r="R11" s="5"/>
-      <c r="S11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T11" s="6"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="7">
+        <v>2</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>2</v>
+      </c>
+      <c r="R11" s="4"/>
+      <c r="S11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T11" s="5"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.7">
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1153,40 +1202,40 @@
       <c r="D12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="8">
-        <v>2</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="8">
-        <v>2</v>
-      </c>
-      <c r="N12" s="8">
-        <v>2</v>
-      </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="8">
-        <v>2</v>
-      </c>
-      <c r="T12" s="8"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="7">
+        <v>2</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="7">
+        <v>2</v>
+      </c>
+      <c r="N12" s="7">
+        <v>2</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="7">
+        <v>2</v>
+      </c>
+      <c r="T12" s="7"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.7">
       <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1195,44 +1244,44 @@
       <c r="D13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="8">
-        <v>2</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="8">
-        <v>2</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>2</v>
-      </c>
-      <c r="R13" s="7">
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="7">
+        <v>2</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>2</v>
+      </c>
+      <c r="R13" s="6">
         <v>0</v>
       </c>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.7">
       <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1241,40 +1290,40 @@
       <c r="D14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="8">
-        <v>2</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="7">
+        <v>2</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.7">
       <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1283,42 +1332,42 @@
       <c r="D15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="8">
-        <v>2</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="8">
-        <v>2</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="8">
-        <v>2</v>
-      </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="7">
+      <c r="E15" s="4"/>
+      <c r="F15" s="7">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="7">
+        <v>2</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="7">
+        <v>2</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="6">
         <v>0</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q15" s="8">
-        <v>2</v>
-      </c>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>2</v>
+      </c>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.7">
       <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1327,38 +1376,38 @@
       <c r="D16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="8">
-        <v>2</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="8">
-        <v>2</v>
-      </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="7">
+        <v>2</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.7">
       <c r="A17" s="1">
         <v>10</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1367,34 +1416,34 @@
       <c r="D17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="8">
-        <v>2</v>
-      </c>
-      <c r="L17" s="8">
-        <v>2</v>
-      </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="7">
+        <v>2</v>
+      </c>
+      <c r="L17" s="7">
+        <v>2</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.7">
       <c r="A18" s="1">
         <v>11</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1403,42 +1452,42 @@
       <c r="D18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="8">
-        <v>2</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="8">
-        <v>2</v>
-      </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O18" s="8">
-        <v>2</v>
-      </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="7">
+        <v>2</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="7">
+        <v>2</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="7">
+        <v>2</v>
+      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.7">
       <c r="A19" s="1">
         <v>12</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1447,40 +1496,40 @@
       <c r="D19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="8">
-        <v>2</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="8">
-        <v>2</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N19" s="8">
-        <v>2</v>
-      </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="7">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="7">
+        <v>2</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="7">
+        <v>2</v>
+      </c>
+      <c r="O19" s="4"/>
+      <c r="P19" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.7">
       <c r="A20" s="1">
         <v>13</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1489,34 +1538,34 @@
       <c r="D20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>0</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="7">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="6">
         <v>0</v>
       </c>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="8">
-        <v>2</v>
-      </c>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="7">
+        <v>2</v>
+      </c>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.7">
       <c r="A21" s="1">
         <v>14</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1525,92 +1574,92 @@
       <c r="D21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="8">
-        <v>2</v>
-      </c>
-      <c r="T21" s="8"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="7">
+        <v>2</v>
+      </c>
+      <c r="T21" s="7"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.7">
       <c r="A22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f t="shared" ref="E22:P22" si="1">IF(E7="","-1,",IF(E7="½","0.5,", E7&amp;","))</f>
-        <v>-1,</v>
+        <f>IF(E7="","1,",IF(E7="½","0.5,", E7&amp;","))</f>
+        <v>1,</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>-1,</v>
+        <f t="shared" ref="F22:R22" si="1">IF(F7="","1,",IF(F7="½","0.5,", F7&amp;","))</f>
+        <v>1,</v>
       </c>
       <c r="G22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-1,</v>
+        <v>1,</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-1,</v>
+        <v>1,</v>
       </c>
       <c r="I22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-1,</v>
+        <v>1,</v>
       </c>
       <c r="J22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-1,</v>
+        <v>1,</v>
       </c>
       <c r="K22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-1,</v>
+        <v>1,</v>
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-1,</v>
+        <v>1,</v>
       </c>
       <c r="M22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-1,</v>
+        <v>1,</v>
       </c>
       <c r="N22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-1,</v>
+        <v>1,</v>
       </c>
       <c r="O22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-1,</v>
+        <v>1,</v>
       </c>
       <c r="P22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-1,</v>
+        <v>1,</v>
       </c>
       <c r="Q22" s="1" t="str">
-        <f>IF(Q7="","-1,",IF(Q7="½","0.5,", Q7&amp;","))</f>
+        <f t="shared" si="1"/>
         <v>0.5,</v>
       </c>
       <c r="R22" s="1" t="str">
-        <f>IF(R7="","-1,",IF(R7="½","0.5,", R7&amp;","))</f>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="S22" s="1" t="str">
-        <f t="shared" ref="S22:S35" si="2">IF(S7="","-1",IF(S7="½","0.5", S7&amp;""))</f>
-        <v>-1</v>
+        <f>IF(S7="","1",IF(S7="½","0.5", S7&amp;""))</f>
+        <v>1</v>
       </c>
       <c r="U22" s="1" t="str">
         <f>+"["&amp;_xlfn.CONCAT(E22:S22)&amp;"],"</f>
-        <v>[-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,0.5,0,-1],</v>
+        <v>[1,1,1,1,1,1,1,1,1,1,1,1,0.5,0,1],</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.7">
@@ -1618,68 +1667,68 @@
         <v>1</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f t="shared" ref="E23:R23" si="3">IF(E8="","-1,",IF(E8="½","0.5,", E8&amp;","))</f>
-        <v>-1,</v>
+        <f t="shared" ref="E23:R36" si="2">IF(E8="","1,",IF(E8="½","0.5,", E8&amp;","))</f>
+        <v>1,</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="H23" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="I23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="J23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="K23" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="L23" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="M23" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="N23" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="O23" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="P23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="Q23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="R23" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="S23" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="S23:S36" si="3">IF(S8="","1",IF(S8="½","0.5", S8&amp;""))</f>
         <v>0.5</v>
       </c>
       <c r="U23" s="1" t="str">
         <f t="shared" ref="U23:U36" si="4">+"["&amp;_xlfn.CONCAT(E23:S23)&amp;"],"</f>
-        <v>[-1,0.5,0.5,-1,2,2,-1,-1,-1,-1,-1,2,0.5,-1,0.5],</v>
+        <v>[1,0.5,0.5,1,2,2,1,1,1,1,1,2,0.5,1,0.5],</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.7">
@@ -1687,68 +1736,68 @@
         <v>2</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f t="shared" ref="E24:R24" si="5">IF(E9="","-1,",IF(E9="½","0.5,", E9&amp;","))</f>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="H24" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="I24" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="J24" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="K24" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="L24" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="M24" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="N24" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="O24" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="P24" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="Q24" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="R24" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="S24" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="U24" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>[-1,2,0.5,-1,0.5,-1,-1,-1,2,-1,-1,-1,2,-1,0.5],</v>
+        <v>[1,2,0.5,1,0.5,1,1,1,2,1,1,1,2,1,0.5],</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.7">
@@ -1756,68 +1805,68 @@
         <v>3</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f t="shared" ref="E25:R25" si="6">IF(E10="","-1,",IF(E10="½","0.5,", E10&amp;","))</f>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="H25" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="I25" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="J25" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="K25" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="L25" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="M25" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="N25" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="O25" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="P25" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="Q25" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="R25" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="S25" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="U25" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>[-1,-1,2,0.5,0.5,-1,-1,-1,0,2,-1,-1,-1,-1,0.5],</v>
+        <v>[1,1,2,0.5,0.5,1,1,1,0,2,1,1,1,1,0.5],</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.7">
@@ -1825,68 +1874,68 @@
         <v>4</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f t="shared" ref="E26:R26" si="7">IF(E11="","-1,",IF(E11="½","0.5,", E11&amp;","))</f>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="H26" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="I26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="J26" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="K26" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="L26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="M26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="N26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="O26" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="P26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="Q26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="R26" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="S26" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="U26" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>[-1,0.5,2,-1,0.5,-1,-1,0.5,2,0.5,-1,0.5,2,-1,0.5],</v>
+        <v>[1,0.5,2,1,0.5,1,1,0.5,2,0.5,1,0.5,2,1,0.5],</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.7">
@@ -1894,68 +1943,68 @@
         <v>5</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f t="shared" ref="E27:R27" si="8">IF(E12="","-1,",IF(E12="½","0.5,", E12&amp;","))</f>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="H27" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="I27" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="J27" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="K27" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="L27" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="M27" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="N27" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="O27" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="P27" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="Q27" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="R27" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="S27" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="U27" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>[-1,-1,0.5,-1,2,0.5,-1,-1,2,2,-1,-1,-1,-1,2],</v>
+        <v>[1,1,0.5,1,2,0.5,1,1,2,2,1,1,1,1,2],</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.7">
@@ -1963,68 +2012,68 @@
         <v>6</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f t="shared" ref="E28:R28" si="9">IF(E13="","-1,",IF(E13="½","0.5,", E13&amp;","))</f>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="H28" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="I28" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="J28" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="K28" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="L28" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="M28" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="N28" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="O28" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="P28" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="Q28" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="R28" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="S28" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="U28" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>[2,-1,-1,-1,-1,2,-1,0.5,-1,0.5,0.5,0.5,2,0,-1],</v>
+        <v>[2,1,1,1,1,2,1,0.5,1,0.5,0.5,0.5,2,0,1],</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.7">
@@ -2032,68 +2081,68 @@
         <v>7</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f t="shared" ref="E29:R29" si="10">IF(E14="","-1,",IF(E14="½","0.5,", E14&amp;","))</f>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="H29" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="I29" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="J29" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="K29" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="L29" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="M29" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="N29" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="O29" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="P29" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="Q29" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="R29" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="S29" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="U29" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>[-1,-1,-1,-1,2,-1,-1,0.5,0.5,-1,-1,2,0.5,0.5,-1],</v>
+        <v>[1,1,1,1,2,1,1,0.5,0.5,1,1,2,0.5,0.5,1],</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.7">
@@ -2101,68 +2150,68 @@
         <v>8</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f t="shared" ref="E30:R30" si="11">IF(E15="","-1,",IF(E15="½","0.5,", E15&amp;","))</f>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="H30" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="I30" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="J30" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="K30" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="L30" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="M30" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="N30" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="O30" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="P30" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="Q30" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="R30" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="S30" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="U30" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>[-1,2,-1,2,0.5,-1,-1,2,-1,0,-1,0.5,2,-1,-1],</v>
+        <v>[1,2,1,2,0.5,1,1,2,1,0,1,0.5,2,1,1],</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.7">
@@ -2170,68 +2219,68 @@
         <v>9</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f t="shared" ref="E31:R31" si="12">IF(E16="","-1,",IF(E16="½","0.5,", E16&amp;","))</f>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="G31" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="H31" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="I31" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="J31" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="K31" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="L31" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="M31" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="N31" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="O31" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="P31" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="Q31" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="R31" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="S31" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="U31" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>[-1,-1,-1,0.5,2,-1,2,-1,-1,-1,-1,2,0.5,-1,-1],</v>
+        <v>[1,1,1,0.5,2,1,2,1,1,1,1,2,0.5,1,1],</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.7">
@@ -2239,68 +2288,68 @@
         <v>10</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f t="shared" ref="E32:R32" si="13">IF(E17="","-1,",IF(E17="½","0.5,", E17&amp;","))</f>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="G32" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="H32" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="I32" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="J32" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="K32" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="L32" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="M32" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="N32" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="O32" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="P32" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="Q32" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="R32" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="S32" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="U32" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>[-1,-1,-1,-1,-1,-1,2,2,-1,-1,0.5,-1,-1,-1,-1],</v>
+        <v>[1,1,1,1,1,1,2,2,1,1,0.5,1,1,1,1],</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.7">
@@ -2308,68 +2357,68 @@
         <v>11</v>
       </c>
       <c r="E33" s="1" t="str">
-        <f t="shared" ref="E33:R33" si="14">IF(E18="","-1,",IF(E18="½","0.5,", E18&amp;","))</f>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="G33" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="H33" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="I33" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="J33" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="K33" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="L33" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="M33" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="N33" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="O33" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="P33" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="Q33" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="R33" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="S33" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="U33" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>[-1,0.5,-1,-1,2,-1,0.5,2,-1,0.5,2,-1,-1,0.5,-1],</v>
+        <v>[1,0.5,1,1,2,1,0.5,2,1,0.5,2,1,1,0.5,1],</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.7">
@@ -2377,68 +2426,68 @@
         <v>12</v>
       </c>
       <c r="E34" s="1" t="str">
-        <f t="shared" ref="E34:R34" si="15">IF(E19="","-1,",IF(E19="½","0.5,", E19&amp;","))</f>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="G34" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="H34" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="I34" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="J34" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="K34" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="L34" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="M34" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>0.5,</v>
       </c>
       <c r="N34" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="O34" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="P34" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="Q34" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="R34" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="S34" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="U34" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>[-1,2,-1,-1,-1,2,0.5,-1,0.5,2,-1,2,-1,-1,-1],</v>
+        <v>[1,2,1,1,1,2,0.5,1,0.5,2,1,2,1,1,1],</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.7">
@@ -2446,68 +2495,68 @@
         <v>13</v>
       </c>
       <c r="E35" s="1" t="str">
-        <f t="shared" ref="E35:R35" si="16">IF(E20="","-1,",IF(E20="½","0.5,", E20&amp;","))</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="G35" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="H35" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="I35" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="J35" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="K35" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="L35" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="M35" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="N35" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="O35" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="P35" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="Q35" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="R35" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>2,</v>
       </c>
       <c r="S35" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="U35" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>[0,-1,-1,-1,-1,-1,-1,-1,-1,-1,0,-1,-1,2,-1],</v>
+        <v>[0,1,1,1,1,1,1,1,1,1,0,1,1,2,1],</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.7">
@@ -2515,72 +2564,78 @@
         <v>14</v>
       </c>
       <c r="E36" s="1" t="str">
-        <f t="shared" ref="E36:R36" si="17">IF(E21="","-1,",IF(E21="½","0.5,", E21&amp;","))</f>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="F36" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="G36" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="H36" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="I36" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="J36" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="K36" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="L36" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="M36" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="N36" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="O36" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="P36" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="Q36" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="R36" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>-1,</v>
+        <f t="shared" si="2"/>
+        <v>1,</v>
       </c>
       <c r="S36" s="1" t="str">
-        <f>IF(S21="","-1",IF(S21="½","0.5", S21&amp;""))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="U36" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>[-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,2],</v>
+        <v>[1,1,1,1,1,1,1,1,1,1,1,1,1,1,2],</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:S6"/>
@@ -2590,12 +2645,6 @@
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" tooltip="Normal" display="https://pokemondb.net/type/normal" xr:uid="{07C3DFA8-14D9-49CD-9201-B64327221AE4}"/>
@@ -2632,4 +2681,2406 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId31"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D34350-3063-4EEA-9E80-3CA404041136}">
+  <dimension ref="A1:Y40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24:W40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="3" max="3" width="8.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1015625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.7">
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.7"/>
+    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.7">
+      <c r="E3" s="1" t="str">
+        <f>+"'"&amp;E4&amp;"',"</f>
+        <v>'NOR',</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f>+"'"&amp;F4&amp;"',"</f>
+        <v>'FIR',</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f>+"'"&amp;G4&amp;"',"</f>
+        <v>'WAT',</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f>+"'"&amp;H4&amp;"',"</f>
+        <v>'ELE',</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <f>+"'"&amp;I4&amp;"',"</f>
+        <v>'GRA',</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f>+"'"&amp;J4&amp;"',"</f>
+        <v>'ICE',</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <f>+"'"&amp;K4&amp;"',"</f>
+        <v>'FIG',</v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <f>+"'"&amp;L4&amp;"',"</f>
+        <v>'POI',</v>
+      </c>
+      <c r="M3" s="1" t="str">
+        <f>+"'"&amp;M4&amp;"',"</f>
+        <v>'GRO',</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <f>+"'"&amp;N4&amp;"',"</f>
+        <v>'FLY',</v>
+      </c>
+      <c r="O3" s="1" t="str">
+        <f>+"'"&amp;O4&amp;"',"</f>
+        <v>'PSY',</v>
+      </c>
+      <c r="P3" s="1" t="str">
+        <f>+"'"&amp;P4&amp;"',"</f>
+        <v>'BUG',</v>
+      </c>
+      <c r="Q3" s="1" t="str">
+        <f>+"'"&amp;Q4&amp;"',"</f>
+        <v>'ROC',</v>
+      </c>
+      <c r="R3" s="1" t="str">
+        <f>+"'"&amp;R4&amp;"',"</f>
+        <v>'GHO',</v>
+      </c>
+      <c r="S3" s="1" t="str">
+        <f>+"'"&amp;S4&amp;"',"</f>
+        <v>'DRA',</v>
+      </c>
+      <c r="T3" s="1" t="str">
+        <f>+"'"&amp;T4&amp;"',"</f>
+        <v>'DAR',</v>
+      </c>
+      <c r="U3" s="1" t="str">
+        <f>+"'"&amp;U4&amp;"',"</f>
+        <v>'STE',</v>
+      </c>
+      <c r="V3" s="1" t="str">
+        <f>+_xlfn.CONCAT(E3:U3)</f>
+        <v>'NOR','FIR','WAT','ELE','GRA','ICE','FIG','POI','GRO','FLY','PSY','BUG','ROC','GHO','DRA','DAR','STE',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.7">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.7">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.7">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="13">
+        <v>0</v>
+      </c>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.7">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="14">
+        <v>2</v>
+      </c>
+      <c r="J7" s="14">
+        <v>2</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="11"/>
+      <c r="S7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="T7" s="11"/>
+      <c r="U7" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.7">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="14">
+        <v>2</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="14">
+        <v>2</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="14">
+        <v>2</v>
+      </c>
+      <c r="R8" s="11"/>
+      <c r="S8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.7">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="14">
+        <v>2</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="13">
+        <v>0</v>
+      </c>
+      <c r="N9" s="14">
+        <v>2</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.7">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="14">
+        <v>2</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="14">
+        <v>2</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>2</v>
+      </c>
+      <c r="R10" s="11"/>
+      <c r="S10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10" s="11"/>
+      <c r="U10" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.7">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="14">
+        <v>2</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="14">
+        <v>2</v>
+      </c>
+      <c r="N11" s="14">
+        <v>2</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="14">
+        <v>2</v>
+      </c>
+      <c r="T11" s="11"/>
+      <c r="U11" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.7">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="14">
+        <v>2</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="14">
+        <v>2</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>2</v>
+      </c>
+      <c r="R12" s="13">
+        <v>0</v>
+      </c>
+      <c r="S12" s="11"/>
+      <c r="T12" s="14">
+        <v>2</v>
+      </c>
+      <c r="U12" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.7">
+      <c r="A13" s="1">
+        <v>7</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="14">
+        <v>2</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.7">
+      <c r="A14" s="1">
+        <v>8</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="14">
+        <v>2</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="14">
+        <v>2</v>
+      </c>
+      <c r="M14" s="11"/>
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
+      <c r="O14" s="11"/>
+      <c r="P14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>2</v>
+      </c>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.7">
+      <c r="A15" s="1">
+        <v>9</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="14">
+        <v>2</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="14">
+        <v>2</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.7">
+      <c r="A16" s="1">
+        <v>10</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="14">
+        <v>2</v>
+      </c>
+      <c r="L16" s="14">
+        <v>2</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="13">
+        <v>0</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.7">
+      <c r="A17" s="1">
+        <v>11</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="14">
+        <v>2</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="11"/>
+      <c r="N17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="14">
+        <v>2</v>
+      </c>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="S17" s="11"/>
+      <c r="T17" s="14">
+        <v>2</v>
+      </c>
+      <c r="U17" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.7">
+      <c r="A18" s="1">
+        <v>12</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="14">
+        <v>2</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="14">
+        <v>2</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="M18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="14">
+        <v>2</v>
+      </c>
+      <c r="O18" s="11"/>
+      <c r="P18" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.7">
+      <c r="A19" s="1">
+        <v>13</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="14">
+        <v>2</v>
+      </c>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="14">
+        <v>2</v>
+      </c>
+      <c r="S19" s="11"/>
+      <c r="T19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="U19" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.7">
+      <c r="A20" s="1">
+        <v>14</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="14">
+        <v>2</v>
+      </c>
+      <c r="T20" s="11"/>
+      <c r="U20" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.7">
+      <c r="A21" s="1">
+        <v>15</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="14">
+        <v>2</v>
+      </c>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="14">
+        <v>2</v>
+      </c>
+      <c r="S21" s="11"/>
+      <c r="T21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="U21" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.7">
+      <c r="A22" s="1">
+        <v>16</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="14">
+        <v>2</v>
+      </c>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="14">
+        <v>2</v>
+      </c>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.7">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="E24" s="1" t="str">
+        <f>IF(E6="","1,",IF(E6="½","0.5,", E6&amp;","))</f>
+        <v>1,</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f t="shared" ref="F24:T24" si="0">IF(F6="","1,",IF(F6="½","0.5,", F6&amp;","))</f>
+        <v>1,</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="J24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="K24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="L24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="M24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="N24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="O24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="P24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="Q24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.5,</v>
+      </c>
+      <c r="R24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="S24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="T24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="U24" s="1" t="str">
+        <f>IF(U6="","1",IF(U6="½","0.5", U6&amp;""))</f>
+        <v>0.5</v>
+      </c>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1" t="str">
+        <f>+"["&amp;_xlfn.CONCAT(E24:U24)&amp;"],"</f>
+        <v>[1,1,1,1,1,1,1,1,1,1,1,1,0.5,0,1,1,0.5],</v>
+      </c>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.7">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="E25" s="1" t="str">
+        <f t="shared" ref="E25:T40" si="1">IF(E7="","1,",IF(E7="½","0.5,", E7&amp;","))</f>
+        <v>1,</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="J25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="K25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="M25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="N25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="O25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="P25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="Q25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="R25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="S25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="T25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="U25" s="1" t="str">
+        <f t="shared" ref="U25:U40" si="2">IF(U7="","1",IF(U7="½","0.5", U7&amp;""))</f>
+        <v>2</v>
+      </c>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1" t="str">
+        <f t="shared" ref="W25:W40" si="3">+"["&amp;_xlfn.CONCAT(E25:U25)&amp;"],"</f>
+        <v>[1,0.5,0.5,1,2,2,1,1,1,1,1,2,0.5,1,0.5,1,2],</v>
+      </c>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.7">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="E26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="J26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="L26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="M26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="N26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="O26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="P26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="Q26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="R26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="S26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="T26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="U26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[1,2,0.5,1,0.5,1,1,1,2,1,1,1,2,1,0.5,1,1],</v>
+      </c>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.7">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="E27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="I27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="J27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="K27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="L27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="M27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="N27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="O27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="P27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="Q27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="R27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="S27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="T27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="U27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[1,1,2,0.5,0.5,1,1,1,0,2,1,1,1,1,0.5,1,1],</v>
+      </c>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.7">
+      <c r="A28" s="1">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="E28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="I28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="J28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="K28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="L28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="M28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="N28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="O28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="P28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="Q28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="R28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="S28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="T28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="U28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[1,0.5,2,1,0.5,1,1,0.5,2,0.5,1,0.5,2,1,0.5,1,0.5],</v>
+      </c>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.7">
+      <c r="A29" s="1">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="E29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="I29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="J29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="K29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="L29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="M29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="N29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="O29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="P29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="Q29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="R29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="S29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="T29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="U29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[1,0.5,0.5,1,2,0.5,1,1,2,2,1,1,1,1,2,1,0.5],</v>
+      </c>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.7">
+      <c r="A30" s="1">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="E30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="I30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="J30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="K30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="L30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="M30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="N30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="O30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="P30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="Q30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="R30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="S30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="T30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="U30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[2,1,1,1,1,2,1,0.5,1,0.5,0.5,0.5,2,0,1,2,2],</v>
+      </c>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.7">
+      <c r="A31" s="1">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="E31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="G31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="I31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="J31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="K31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="L31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="M31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="N31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="O31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="P31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="Q31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="R31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="S31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="T31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="U31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[1,1,1,1,2,1,1,0.5,0.5,1,1,1,0.5,0.5,1,1,0],</v>
+      </c>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.7">
+      <c r="A32" s="1">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="E32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="I32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="J32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="K32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="L32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="M32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="N32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="O32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="P32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="Q32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="R32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="S32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="T32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="U32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[1,2,1,2,0.5,1,1,2,1,0,1,0.5,2,1,1,1,2],</v>
+      </c>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.7">
+      <c r="A33" s="1">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="E33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="G33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="I33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="J33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="K33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="L33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="M33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="N33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="O33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="P33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="Q33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="R33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="S33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="T33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="U33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[1,1,1,0.5,2,1,2,1,1,1,1,2,0.5,1,1,1,0.5],</v>
+      </c>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.7">
+      <c r="A34" s="1">
+        <v>10</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="E34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="I34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="J34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="K34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="L34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="M34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="N34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="O34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="P34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="Q34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="R34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="S34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="T34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="U34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[1,1,1,1,1,1,2,2,1,1,0.5,1,1,1,1,0,0.5],</v>
+      </c>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.7">
+      <c r="A35" s="1">
+        <v>11</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="E35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="G35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="I35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="J35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="K35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="L35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="M35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="N35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="O35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="P35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="Q35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="R35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="S35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="T35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="U35" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[1,0.5,1,1,2,1,0.5,0.5,1,0.5,2,1,1,0.5,1,2,0.5],</v>
+      </c>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.7">
+      <c r="A36" s="1">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="E36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="I36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="J36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="K36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="L36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="M36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="N36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="O36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="P36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="Q36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="R36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="S36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="T36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="U36" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[1,2,1,1,1,2,0.5,1,0.5,2,1,2,1,1,1,1,0.5],</v>
+      </c>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.7">
+      <c r="A37" s="1">
+        <v>13</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="E37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0,</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="G37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="I37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="J37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="K37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="L37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="M37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="N37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="O37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="P37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="Q37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="R37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="S37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="T37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="U37" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[0,1,1,1,1,1,1,1,1,1,2,1,1,2,1,0.5,0.5],</v>
+      </c>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.7">
+      <c r="A38" s="1">
+        <v>14</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="E38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="G38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="I38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="J38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="K38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="L38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="M38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="N38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="O38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="P38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="Q38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="R38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="S38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="T38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="U38" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[1,1,1,1,1,1,1,1,1,1,1,1,1,1,2,1,0.5],</v>
+      </c>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.7">
+      <c r="A39" s="1">
+        <v>15</v>
+      </c>
+      <c r="E39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="I39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="J39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="K39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="L39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="M39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="N39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="O39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="P39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="Q39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="R39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="S39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="T39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="U39" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="W39" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[1,1,1,1,1,1,0.5,1,1,1,2,1,1,2,1,0.5,0.5],</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.7">
+      <c r="A40" s="1">
+        <v>16</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0.5,</v>
+      </c>
+      <c r="I40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="J40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="K40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="L40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="M40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="N40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="O40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="P40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="Q40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2,</v>
+      </c>
+      <c r="R40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="S40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1,</v>
+      </c>
+      <c r="T40" s="1" t="str">
+        <f t="shared" ref="T40" si="4">IF(T22="","1,",IF(T22="½","0.5,", T22&amp;","))</f>
+        <v>1,</v>
+      </c>
+      <c r="U40" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="W40" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>[1,0.5,0.5,0.5,1,2,1,1,1,1,1,1,2,1,1,1,0.5],</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" tooltip="Normal" display="https://pokemondb.net/type/normal" xr:uid="{5467C861-DA9F-4089-8830-A538C7A86098}"/>
+    <hyperlink ref="F4" r:id="rId2" tooltip="Fire" display="https://pokemondb.net/type/fire" xr:uid="{34DBD53B-22E9-4AAC-832A-36EA69430AD5}"/>
+    <hyperlink ref="G4" r:id="rId3" tooltip="Water" display="https://pokemondb.net/type/water" xr:uid="{791C58A4-66E5-4C96-9FCB-C34D3D143C56}"/>
+    <hyperlink ref="H4" r:id="rId4" tooltip="Electric" display="https://pokemondb.net/type/electric" xr:uid="{E82F0555-4034-47B7-8B6E-8889D90FEC94}"/>
+    <hyperlink ref="I4" r:id="rId5" tooltip="Grass" display="https://pokemondb.net/type/grass" xr:uid="{2212C58E-44D4-473F-A69E-9437589E7D78}"/>
+    <hyperlink ref="J4" r:id="rId6" tooltip="Ice" display="https://pokemondb.net/type/ice" xr:uid="{CC1B9C0C-9720-45AE-BB7F-D202E9FB182A}"/>
+    <hyperlink ref="K4" r:id="rId7" tooltip="Fighting" display="https://pokemondb.net/type/fighting" xr:uid="{4BE76CC3-BD7D-4DE7-BD79-395DCCBAE056}"/>
+    <hyperlink ref="L4" r:id="rId8" tooltip="Poison" display="https://pokemondb.net/type/poison" xr:uid="{618CB0FE-76ED-42A1-82AD-3F866E40DBA0}"/>
+    <hyperlink ref="M4" r:id="rId9" tooltip="Ground" display="https://pokemondb.net/type/ground" xr:uid="{EB4834E0-B364-4561-9BCE-627157231993}"/>
+    <hyperlink ref="N4" r:id="rId10" tooltip="Flying" display="https://pokemondb.net/type/flying" xr:uid="{A0D7DE0B-D833-47E8-8FE2-F7EA3E37A61E}"/>
+    <hyperlink ref="O4" r:id="rId11" tooltip="Psychic" display="https://pokemondb.net/type/psychic" xr:uid="{955D3816-16B9-41BF-ADC5-167EC86E5380}"/>
+    <hyperlink ref="P4" r:id="rId12" tooltip="Bug" display="https://pokemondb.net/type/bug" xr:uid="{B1DF6DBD-43C9-4FDF-B19D-9517D9C2311B}"/>
+    <hyperlink ref="Q4" r:id="rId13" tooltip="Rock" display="https://pokemondb.net/type/rock" xr:uid="{A5E2C3F6-B2FB-4102-BADC-AE21002710EA}"/>
+    <hyperlink ref="R4" r:id="rId14" tooltip="Ghost" display="https://pokemondb.net/type/ghost" xr:uid="{877F88B1-6480-4D16-80BF-DA4939165930}"/>
+    <hyperlink ref="S4" r:id="rId15" tooltip="Dragon" display="https://pokemondb.net/type/dragon" xr:uid="{8FE45B45-9987-4A8A-AB5C-3129FBA36FA7}"/>
+    <hyperlink ref="T4" r:id="rId16" tooltip="Dark" display="https://pokemondb.net/type/dark" xr:uid="{E61C2700-7E9E-4588-9FF8-D0D7DC5FC7CA}"/>
+    <hyperlink ref="U4" r:id="rId17" tooltip="Steel" display="https://pokemondb.net/type/steel" xr:uid="{0CEB7265-586D-4170-9063-0A2D3D83A317}"/>
+    <hyperlink ref="B6" r:id="rId18" display="https://pokemondb.net/type/normal" xr:uid="{7BA16059-A2ED-43DB-B1C7-4BEE8A41637D}"/>
+    <hyperlink ref="B7" r:id="rId19" display="https://pokemondb.net/type/fire" xr:uid="{2C63B5B6-D235-4E30-8CB2-D06097422A27}"/>
+    <hyperlink ref="B8" r:id="rId20" display="https://pokemondb.net/type/water" xr:uid="{5B407D51-3A7D-4198-98B7-EC5D7036A18B}"/>
+    <hyperlink ref="B9" r:id="rId21" display="https://pokemondb.net/type/electric" xr:uid="{ABD93ABA-1D17-4090-9A9D-CD8C254E459A}"/>
+    <hyperlink ref="B10" r:id="rId22" display="https://pokemondb.net/type/grass" xr:uid="{C7B7AFC1-796F-4FC4-877B-4F35A47E8AA9}"/>
+    <hyperlink ref="B11" r:id="rId23" display="https://pokemondb.net/type/ice" xr:uid="{5339E618-840B-4E3F-9409-9845E1A7781C}"/>
+    <hyperlink ref="B12" r:id="rId24" display="https://pokemondb.net/type/fighting" xr:uid="{462EE581-6367-4821-B71C-4502E9E99EEC}"/>
+    <hyperlink ref="B13" r:id="rId25" display="https://pokemondb.net/type/poison" xr:uid="{BC0CD874-016F-4FBE-8CEF-07E3EEE774F5}"/>
+    <hyperlink ref="B14" r:id="rId26" display="https://pokemondb.net/type/ground" xr:uid="{E6A09D7B-93F3-4371-95D1-54A9DB2E4215}"/>
+    <hyperlink ref="B15" r:id="rId27" display="https://pokemondb.net/type/flying" xr:uid="{D8ADD8D9-4A72-4EF1-B940-0AEEBA15CCE2}"/>
+    <hyperlink ref="B16" r:id="rId28" display="https://pokemondb.net/type/psychic" xr:uid="{4E9B7DCC-1556-47A5-91C0-4D4D412AFFD8}"/>
+    <hyperlink ref="B17" r:id="rId29" display="https://pokemondb.net/type/bug" xr:uid="{3A07995B-25D5-437E-847B-2AB533CC58AB}"/>
+    <hyperlink ref="B18" r:id="rId30" display="https://pokemondb.net/type/rock" xr:uid="{D587A72C-F84B-4539-BFA4-2A02C7D8CD63}"/>
+    <hyperlink ref="B19" r:id="rId31" display="https://pokemondb.net/type/ghost" xr:uid="{8A16858A-04A6-4FC3-95A1-3ED3C1EB7295}"/>
+    <hyperlink ref="B20" r:id="rId32" display="https://pokemondb.net/type/dragon" xr:uid="{868BF546-197C-424E-AC0E-E972918D4DB7}"/>
+    <hyperlink ref="B21" r:id="rId33" display="https://pokemondb.net/type/dark" xr:uid="{12251C56-F953-4C1B-AD11-802833B71BDB}"/>
+    <hyperlink ref="B22" r:id="rId34" display="https://pokemondb.net/type/steel" xr:uid="{1AA67443-32FA-4FD0-AD90-5CC6DB244DD3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>